--- a/FMEA_SoftwareStack.xlsx
+++ b/FMEA_SoftwareStack.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anc/WorkDocs/Thought Leading/Resilience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F5D388-78C6-ED47-9718-872EF02E2001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBAC30C-1214-C142-BBB5-7797B3A21745}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="460" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FMEA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="Probability" sheetId="4" r:id="rId3"/>
     <sheet name="Detectability" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FMEA!$A$1:$P$63</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -540,7 +543,7 @@
     <t>Root volume full</t>
   </si>
   <si>
-    <t>Processes dy                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  ing</t>
+    <t>Processes dying</t>
   </si>
 </sst>
 </file>
@@ -1177,47 +1180,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1247,26 +1214,62 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,11 +1587,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="181" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="181" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1615,15 +1619,15 @@
         <v>107</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
@@ -1642,13 +1646,13 @@
         <v>119</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
       <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
@@ -1665,22 +1669,22 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
       <c r="L3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="97">
+      <c r="M3" s="118">
         <v>43439</v>
       </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1699,13 +1703,13 @@
       <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="97">
+      <c r="M4" s="118">
         <f ca="1">NOW()</f>
-        <v>43532.683035879629</v>
-      </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
+        <v>43779.97965335648</v>
+      </c>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
     </row>
     <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -1822,7 +1826,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="120" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="56" t="s">
@@ -1862,7 +1866,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="100"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="56" t="s">
         <v>112</v>
       </c>
@@ -1921,7 +1925,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="120" t="s">
         <v>121</v>
       </c>
       <c r="B12" s="56" t="s">
@@ -1957,7 +1961,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="103"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="56" t="s">
         <v>59</v>
       </c>
@@ -1991,7 +1995,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="103"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="56" t="s">
         <v>62</v>
       </c>
@@ -2025,7 +2029,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="103"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="56" t="s">
         <v>64</v>
       </c>
@@ -2059,7 +2063,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="103"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="56" t="s">
         <v>67</v>
       </c>
@@ -2093,7 +2097,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="103"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="56" t="s">
         <v>78</v>
       </c>
@@ -2127,7 +2131,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="103"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="56" t="s">
         <v>81</v>
       </c>
@@ -2161,7 +2165,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="103"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="57" t="s">
         <v>84</v>
       </c>
@@ -2213,7 +2217,7 @@
       <c r="P20" s="89"/>
     </row>
     <row r="21" spans="1:16" ht="56" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="113" t="s">
         <v>124</v>
       </c>
       <c r="B21" s="60" t="s">
@@ -2244,7 +2248,7 @@
       <c r="P21" s="60"/>
     </row>
     <row r="22" spans="1:16" ht="46" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="95"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="60" t="s">
         <v>129</v>
       </c>
@@ -2274,7 +2278,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="96"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="60" t="s">
         <v>122</v>
       </c>
@@ -2297,7 +2301,7 @@
       <c r="P23" s="60"/>
     </row>
     <row r="24" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="113" t="s">
         <v>127</v>
       </c>
       <c r="B24" s="60" t="s">
@@ -2328,7 +2332,7 @@
       <c r="P24" s="60"/>
     </row>
     <row r="25" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="96"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="60" t="s">
         <v>134</v>
       </c>
@@ -2356,10 +2360,10 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="94" t="s">
         <v>138</v>
       </c>
       <c r="C26" s="60"/>
@@ -2386,7 +2390,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="95"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="60" t="s">
         <v>136</v>
       </c>
@@ -2396,14 +2400,14 @@
       <c r="F27" s="90"/>
       <c r="G27" s="60"/>
       <c r="H27" s="90"/>
-      <c r="I27" s="115">
+      <c r="I27" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="116" t="s">
+      <c r="J27" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="K27" s="108"/>
+      <c r="K27" s="96"/>
       <c r="L27" s="60"/>
       <c r="M27" s="60"/>
       <c r="N27" s="60"/>
@@ -2411,8 +2415,8 @@
       <c r="P27" s="60"/>
     </row>
     <row r="28" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="95"/>
-      <c r="B28" s="106" t="s">
+      <c r="A28" s="114"/>
+      <c r="B28" s="95" t="s">
         <v>139</v>
       </c>
       <c r="C28" s="60"/>
@@ -2421,9 +2425,9 @@
       <c r="F28" s="90"/>
       <c r="G28" s="60"/>
       <c r="H28" s="90"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="108"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="96"/>
       <c r="L28" s="60"/>
       <c r="M28" s="60"/>
       <c r="N28" s="60"/>
@@ -2431,8 +2435,8 @@
       <c r="P28" s="60"/>
     </row>
     <row r="29" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="95"/>
-      <c r="B29" s="106" t="s">
+      <c r="A29" s="114"/>
+      <c r="B29" s="95" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="60"/>
@@ -2441,9 +2445,9 @@
       <c r="F29" s="90"/>
       <c r="G29" s="60"/>
       <c r="H29" s="90"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="108"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="96"/>
       <c r="L29" s="60"/>
       <c r="M29" s="60"/>
       <c r="N29" s="60"/>
@@ -2451,8 +2455,8 @@
       <c r="P29" s="60"/>
     </row>
     <row r="30" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="95"/>
-      <c r="B30" s="106" t="s">
+      <c r="A30" s="114"/>
+      <c r="B30" s="95" t="s">
         <v>141</v>
       </c>
       <c r="C30" s="60"/>
@@ -2461,9 +2465,9 @@
       <c r="F30" s="90"/>
       <c r="G30" s="60"/>
       <c r="H30" s="90"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="108"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="96"/>
       <c r="L30" s="60"/>
       <c r="M30" s="60"/>
       <c r="N30" s="60"/>
@@ -2471,8 +2475,8 @@
       <c r="P30" s="60"/>
     </row>
     <row r="31" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="95"/>
-      <c r="B31" s="106" t="s">
+      <c r="A31" s="114"/>
+      <c r="B31" s="95" t="s">
         <v>142</v>
       </c>
       <c r="C31" s="60"/>
@@ -2481,9 +2485,9 @@
       <c r="F31" s="90"/>
       <c r="G31" s="60"/>
       <c r="H31" s="90"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="108"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="96"/>
       <c r="L31" s="60"/>
       <c r="M31" s="60"/>
       <c r="N31" s="60"/>
@@ -2491,8 +2495,8 @@
       <c r="P31" s="60"/>
     </row>
     <row r="32" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="95"/>
-      <c r="B32" s="106" t="s">
+      <c r="A32" s="114"/>
+      <c r="B32" s="95" t="s">
         <v>143</v>
       </c>
       <c r="C32" s="60"/>
@@ -2501,9 +2505,9 @@
       <c r="F32" s="90"/>
       <c r="G32" s="60"/>
       <c r="H32" s="90"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="108"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="96"/>
       <c r="L32" s="60"/>
       <c r="M32" s="60"/>
       <c r="N32" s="60"/>
@@ -2511,8 +2515,8 @@
       <c r="P32" s="60"/>
     </row>
     <row r="33" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="95"/>
-      <c r="B33" s="106" t="s">
+      <c r="A33" s="114"/>
+      <c r="B33" s="95" t="s">
         <v>144</v>
       </c>
       <c r="C33" s="60"/>
@@ -2521,9 +2525,9 @@
       <c r="F33" s="90"/>
       <c r="G33" s="60"/>
       <c r="H33" s="90"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="108"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="96"/>
       <c r="L33" s="60"/>
       <c r="M33" s="60"/>
       <c r="N33" s="60"/>
@@ -2531,8 +2535,8 @@
       <c r="P33" s="60"/>
     </row>
     <row r="34" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="95"/>
-      <c r="B34" s="106" t="s">
+      <c r="A34" s="114"/>
+      <c r="B34" s="95" t="s">
         <v>145</v>
       </c>
       <c r="C34" s="60"/>
@@ -2541,9 +2545,9 @@
       <c r="F34" s="90"/>
       <c r="G34" s="60"/>
       <c r="H34" s="90"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="108"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="96"/>
       <c r="L34" s="60"/>
       <c r="M34" s="60"/>
       <c r="N34" s="60"/>
@@ -2551,8 +2555,8 @@
       <c r="P34" s="60"/>
     </row>
     <row r="35" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="95"/>
-      <c r="B35" s="109" t="s">
+      <c r="A35" s="114"/>
+      <c r="B35" s="97" t="s">
         <v>146</v>
       </c>
       <c r="C35" s="60"/>
@@ -2561,9 +2565,9 @@
       <c r="F35" s="90"/>
       <c r="G35" s="60"/>
       <c r="H35" s="90"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="108"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="96"/>
       <c r="L35" s="60"/>
       <c r="M35" s="60"/>
       <c r="N35" s="60"/>
@@ -2571,19 +2575,19 @@
       <c r="P35" s="60"/>
     </row>
     <row r="36" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="107"/>
-      <c r="B36" s="112" t="s">
+      <c r="A36" s="117"/>
+      <c r="B36" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="108"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="90"/>
       <c r="E36" s="60"/>
       <c r="F36" s="90"/>
       <c r="G36" s="60"/>
       <c r="H36" s="90"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="108"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="96"/>
       <c r="L36" s="60"/>
       <c r="M36" s="60"/>
       <c r="N36" s="60"/>
@@ -2591,19 +2595,19 @@
       <c r="P36" s="60"/>
     </row>
     <row r="37" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="107"/>
-      <c r="B37" s="112" t="s">
+      <c r="A37" s="117"/>
+      <c r="B37" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="108"/>
+      <c r="C37" s="96"/>
       <c r="D37" s="90"/>
       <c r="E37" s="60"/>
       <c r="F37" s="90"/>
       <c r="G37" s="60"/>
       <c r="H37" s="90"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="108"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="96"/>
       <c r="L37" s="60"/>
       <c r="M37" s="60"/>
       <c r="N37" s="60"/>
@@ -2611,19 +2615,19 @@
       <c r="P37" s="60"/>
     </row>
     <row r="38" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="107"/>
-      <c r="B38" s="112" t="s">
+      <c r="A38" s="117"/>
+      <c r="B38" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="108"/>
+      <c r="C38" s="96"/>
       <c r="D38" s="90"/>
       <c r="E38" s="60"/>
       <c r="F38" s="90"/>
       <c r="G38" s="60"/>
       <c r="H38" s="90"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="108"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="96"/>
       <c r="L38" s="60"/>
       <c r="M38" s="60"/>
       <c r="N38" s="60"/>
@@ -2631,19 +2635,19 @@
       <c r="P38" s="60"/>
     </row>
     <row r="39" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="107"/>
-      <c r="B39" s="112" t="s">
+      <c r="A39" s="117"/>
+      <c r="B39" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="108"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="90"/>
       <c r="E39" s="60"/>
       <c r="F39" s="90"/>
       <c r="G39" s="60"/>
       <c r="H39" s="90"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="108"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="96"/>
       <c r="L39" s="60"/>
       <c r="M39" s="60"/>
       <c r="N39" s="60"/>
@@ -2651,19 +2655,19 @@
       <c r="P39" s="60"/>
     </row>
     <row r="40" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="107"/>
-      <c r="B40" s="112" t="s">
+      <c r="A40" s="117"/>
+      <c r="B40" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="108"/>
+      <c r="C40" s="96"/>
       <c r="D40" s="90"/>
       <c r="E40" s="60"/>
       <c r="F40" s="90"/>
       <c r="G40" s="60"/>
       <c r="H40" s="90"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="108"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="96"/>
       <c r="L40" s="60"/>
       <c r="M40" s="60"/>
       <c r="N40" s="60"/>
@@ -2671,19 +2675,19 @@
       <c r="P40" s="60"/>
     </row>
     <row r="41" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="107"/>
-      <c r="B41" s="112" t="s">
+      <c r="A41" s="117"/>
+      <c r="B41" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="108"/>
+      <c r="C41" s="96"/>
       <c r="D41" s="90"/>
       <c r="E41" s="60"/>
       <c r="F41" s="90"/>
       <c r="G41" s="60"/>
       <c r="H41" s="90"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="108"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="96"/>
       <c r="L41" s="60"/>
       <c r="M41" s="60"/>
       <c r="N41" s="60"/>
@@ -2691,19 +2695,19 @@
       <c r="P41" s="60"/>
     </row>
     <row r="42" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="107"/>
-      <c r="B42" s="112" t="s">
+      <c r="A42" s="117"/>
+      <c r="B42" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="108"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="90"/>
       <c r="E42" s="60"/>
       <c r="F42" s="90"/>
       <c r="G42" s="60"/>
       <c r="H42" s="90"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="108"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="96"/>
       <c r="L42" s="60"/>
       <c r="M42" s="60"/>
       <c r="N42" s="60"/>
@@ -2711,19 +2715,19 @@
       <c r="P42" s="60"/>
     </row>
     <row r="43" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="107"/>
-      <c r="B43" s="112" t="s">
+      <c r="A43" s="117"/>
+      <c r="B43" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="C43" s="108"/>
+      <c r="C43" s="96"/>
       <c r="D43" s="90"/>
       <c r="E43" s="60"/>
       <c r="F43" s="90"/>
       <c r="G43" s="60"/>
       <c r="H43" s="90"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="108"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="96"/>
       <c r="L43" s="60"/>
       <c r="M43" s="60"/>
       <c r="N43" s="60"/>
@@ -2731,19 +2735,19 @@
       <c r="P43" s="60"/>
     </row>
     <row r="44" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="107"/>
-      <c r="B44" s="112" t="s">
+      <c r="A44" s="117"/>
+      <c r="B44" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="108"/>
+      <c r="C44" s="96"/>
       <c r="D44" s="90"/>
       <c r="E44" s="60"/>
       <c r="F44" s="90"/>
       <c r="G44" s="60"/>
       <c r="H44" s="90"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="108"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="96"/>
       <c r="L44" s="60"/>
       <c r="M44" s="60"/>
       <c r="N44" s="60"/>
@@ -2751,19 +2755,19 @@
       <c r="P44" s="60"/>
     </row>
     <row r="45" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="107"/>
-      <c r="B45" s="112" t="s">
+      <c r="A45" s="117"/>
+      <c r="B45" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="108"/>
+      <c r="C45" s="96"/>
       <c r="D45" s="90"/>
       <c r="E45" s="60"/>
       <c r="F45" s="90"/>
       <c r="G45" s="60"/>
       <c r="H45" s="90"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="108"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="104"/>
+      <c r="K45" s="96"/>
       <c r="L45" s="60"/>
       <c r="M45" s="60"/>
       <c r="N45" s="60"/>
@@ -2771,19 +2775,19 @@
       <c r="P45" s="60"/>
     </row>
     <row r="46" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="107"/>
-      <c r="B46" s="112" t="s">
+      <c r="A46" s="117"/>
+      <c r="B46" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="108"/>
+      <c r="C46" s="96"/>
       <c r="D46" s="90"/>
       <c r="E46" s="60"/>
       <c r="F46" s="90"/>
       <c r="G46" s="60"/>
       <c r="H46" s="90"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="108"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="96"/>
       <c r="L46" s="60"/>
       <c r="M46" s="60"/>
       <c r="N46" s="60"/>
@@ -2791,19 +2795,19 @@
       <c r="P46" s="60"/>
     </row>
     <row r="47" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="107"/>
-      <c r="B47" s="112" t="s">
+      <c r="A47" s="117"/>
+      <c r="B47" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="108"/>
+      <c r="C47" s="96"/>
       <c r="D47" s="90"/>
       <c r="E47" s="60"/>
       <c r="F47" s="90"/>
       <c r="G47" s="60"/>
       <c r="H47" s="90"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="108"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="96"/>
       <c r="L47" s="60"/>
       <c r="M47" s="60"/>
       <c r="N47" s="60"/>
@@ -2811,19 +2815,19 @@
       <c r="P47" s="60"/>
     </row>
     <row r="48" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="107"/>
-      <c r="B48" s="112" t="s">
+      <c r="A48" s="117"/>
+      <c r="B48" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="108"/>
+      <c r="C48" s="96"/>
       <c r="D48" s="90"/>
       <c r="E48" s="60"/>
       <c r="F48" s="90"/>
       <c r="G48" s="60"/>
       <c r="H48" s="90"/>
-      <c r="I48" s="115"/>
-      <c r="J48" s="116"/>
-      <c r="K48" s="108"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="96"/>
       <c r="L48" s="60"/>
       <c r="M48" s="60"/>
       <c r="N48" s="60"/>
@@ -2831,19 +2835,19 @@
       <c r="P48" s="60"/>
     </row>
     <row r="49" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="107"/>
-      <c r="B49" s="112" t="s">
+      <c r="A49" s="117"/>
+      <c r="B49" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="108"/>
+      <c r="C49" s="96"/>
       <c r="D49" s="90"/>
       <c r="E49" s="60"/>
       <c r="F49" s="90"/>
       <c r="G49" s="60"/>
       <c r="H49" s="90"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="108"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="96"/>
       <c r="L49" s="60"/>
       <c r="M49" s="60"/>
       <c r="N49" s="60"/>
@@ -2851,19 +2855,19 @@
       <c r="P49" s="60"/>
     </row>
     <row r="50" spans="1:16" ht="52" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="107"/>
-      <c r="B50" s="111" t="s">
+      <c r="A50" s="117"/>
+      <c r="B50" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="C50" s="120"/>
-      <c r="D50" s="121"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="107"/>
       <c r="E50" s="93"/>
-      <c r="F50" s="121"/>
+      <c r="F50" s="107"/>
       <c r="G50" s="93"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="120"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="106"/>
       <c r="L50" s="60"/>
       <c r="M50" s="60"/>
       <c r="N50" s="60"/>
@@ -2871,21 +2875,21 @@
       <c r="P50" s="60"/>
     </row>
     <row r="51" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="107"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="116">
+      <c r="A51" s="117"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J51" s="113"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="108"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="104"/>
+      <c r="L51" s="96"/>
       <c r="M51" s="60"/>
       <c r="N51" s="60"/>
       <c r="O51" s="60"/>
@@ -2895,251 +2899,251 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="118" t="s">
+      <c r="A52" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="117" t="s">
+      <c r="B52" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="117" t="s">
+      <c r="C52" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="124"/>
-      <c r="E52" s="117" t="s">
+      <c r="D52" s="110"/>
+      <c r="E52" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="F52" s="124"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="114"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
-      <c r="O52" s="114"/>
-      <c r="P52" s="114"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="104"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="102"/>
+      <c r="P52" s="102"/>
     </row>
     <row r="53" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="118"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="117" t="s">
+      <c r="A53" s="111"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="F53" s="124"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="116"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="116"/>
-      <c r="L53" s="114"/>
-      <c r="M53" s="114"/>
-      <c r="N53" s="114"/>
-      <c r="O53" s="114"/>
-      <c r="P53" s="114"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="102"/>
+      <c r="O53" s="102"/>
+      <c r="P53" s="102"/>
     </row>
     <row r="54" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="118"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="117" t="s">
+      <c r="A54" s="111"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="F54" s="124"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="114"/>
-      <c r="P54" s="114"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="102"/>
+      <c r="N54" s="102"/>
+      <c r="O54" s="102"/>
+      <c r="P54" s="102"/>
     </row>
     <row r="55" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="118"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="117" t="s">
+      <c r="A55" s="111"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="F55" s="124"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="114"/>
-      <c r="M55" s="114"/>
-      <c r="N55" s="114"/>
-      <c r="O55" s="114"/>
-      <c r="P55" s="114"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="102"/>
+      <c r="M55" s="102"/>
+      <c r="N55" s="102"/>
+      <c r="O55" s="102"/>
+      <c r="P55" s="102"/>
     </row>
     <row r="56" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="118"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="117" t="s">
+      <c r="A56" s="111"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="F56" s="124"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="113"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="114"/>
-      <c r="M56" s="114"/>
-      <c r="N56" s="114"/>
-      <c r="O56" s="114"/>
-      <c r="P56" s="114"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="102"/>
+      <c r="M56" s="102"/>
+      <c r="N56" s="102"/>
+      <c r="O56" s="102"/>
+      <c r="P56" s="102"/>
     </row>
     <row r="57" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="118"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="117" t="s">
+      <c r="A57" s="111"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="F57" s="124"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="116"/>
-      <c r="L57" s="114"/>
-      <c r="M57" s="114"/>
-      <c r="N57" s="114"/>
-      <c r="O57" s="114"/>
-      <c r="P57" s="114"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="102"/>
+      <c r="M57" s="102"/>
+      <c r="N57" s="102"/>
+      <c r="O57" s="102"/>
+      <c r="P57" s="102"/>
     </row>
     <row r="58" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="118"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
-      <c r="N58" s="114"/>
-      <c r="O58" s="114"/>
-      <c r="P58" s="114"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="102"/>
+      <c r="M58" s="102"/>
+      <c r="N58" s="102"/>
+      <c r="O58" s="102"/>
+      <c r="P58" s="102"/>
     </row>
     <row r="59" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="118"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="116"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="116"/>
-      <c r="L59" s="114"/>
-      <c r="M59" s="114"/>
-      <c r="N59" s="114"/>
-      <c r="O59" s="114"/>
-      <c r="P59" s="114"/>
+      <c r="A59" s="111"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="101"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="102"/>
+      <c r="M59" s="102"/>
+      <c r="N59" s="102"/>
+      <c r="O59" s="102"/>
+      <c r="P59" s="102"/>
     </row>
     <row r="60" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="118"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="124"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="114"/>
-      <c r="M60" s="114"/>
-      <c r="N60" s="114"/>
-      <c r="O60" s="114"/>
-      <c r="P60" s="114"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="101"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="102"/>
+      <c r="M60" s="102"/>
+      <c r="N60" s="102"/>
+      <c r="O60" s="102"/>
+      <c r="P60" s="102"/>
     </row>
     <row r="61" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="118"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="124"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="113"/>
-      <c r="K61" s="116"/>
-      <c r="L61" s="114"/>
-      <c r="M61" s="114"/>
-      <c r="N61" s="114"/>
-      <c r="O61" s="114"/>
-      <c r="P61" s="114"/>
+      <c r="A61" s="111"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="101"/>
+      <c r="K61" s="104"/>
+      <c r="L61" s="102"/>
+      <c r="M61" s="102"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="102"/>
+      <c r="P61" s="102"/>
     </row>
     <row r="62" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="118"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="113"/>
-      <c r="K62" s="116"/>
-      <c r="L62" s="114"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
+      <c r="A62" s="111"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="101"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="102"/>
+      <c r="M62" s="102"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="102"/>
+      <c r="P62" s="102"/>
     </row>
     <row r="63" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="119"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="116"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="124"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="113"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="114"/>
-      <c r="M63" s="114"/>
-      <c r="N63" s="114"/>
-      <c r="O63" s="114"/>
-      <c r="P63" s="114"/>
+      <c r="A63" s="112"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="102"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="102"/>
+      <c r="O63" s="102"/>
+      <c r="P63" s="102"/>
     </row>
     <row r="64" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="110"/>
-      <c r="B64" s="110"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="110"/>
-      <c r="F64" s="110"/>
-      <c r="G64" s="110"/>
-      <c r="H64" s="110"/>
-      <c r="I64" s="110"/>
-      <c r="J64" s="110"/>
-      <c r="K64" s="110"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="98"/>
+      <c r="I64" s="98"/>
+      <c r="J64" s="98"/>
+      <c r="K64" s="98"/>
       <c r="L64" s="85"/>
       <c r="M64" s="84"/>
       <c r="N64" s="84"/>
@@ -3159,6 +3163,7 @@
     <mergeCell ref="A12:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="58" fitToHeight="3" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
